--- a/DallasDesignSprint/ScrapingOutput/locations/StoneStreetGardens/StoneStreetGardens.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/StoneStreetGardens/StoneStreetGardens.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="3">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="5">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="6">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="7">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="9">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="10">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
     <row r="11">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.7777132</v>
+        <v>32.7813827</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.8155783</v>
+        <v>-96.7986925</v>
       </c>
     </row>
   </sheetData>
